--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Icam4-Itga2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Icam4-Itga2b.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7497096666666666</v>
+        <v>1.389221</v>
       </c>
       <c r="H2">
-        <v>2.249129</v>
+        <v>4.167663</v>
       </c>
       <c r="I2">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="J2">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6763496666666667</v>
+        <v>1.646992</v>
       </c>
       <c r="N2">
-        <v>2.029049</v>
+        <v>4.940976</v>
       </c>
       <c r="O2">
-        <v>0.1221603374409683</v>
+        <v>0.2071783517404009</v>
       </c>
       <c r="P2">
-        <v>0.1221603374409683</v>
+        <v>0.2071783517404009</v>
       </c>
       <c r="Q2">
-        <v>0.5070658831467778</v>
+        <v>2.288035873232</v>
       </c>
       <c r="R2">
-        <v>4.563592948321</v>
+        <v>20.592322859088</v>
       </c>
       <c r="S2">
-        <v>0.02372583145421691</v>
+        <v>0.06029450372834916</v>
       </c>
       <c r="T2">
-        <v>0.02372583145421691</v>
+        <v>0.06029450372834916</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7497096666666666</v>
+        <v>1.389221</v>
       </c>
       <c r="H3">
-        <v>2.249129</v>
+        <v>4.167663</v>
       </c>
       <c r="I3">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="J3">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>11.173509</v>
       </c>
       <c r="O3">
-        <v>0.672709052289864</v>
+        <v>0.4685125322965616</v>
       </c>
       <c r="P3">
-        <v>0.672709052289864</v>
+        <v>0.4685125322965616</v>
       </c>
       <c r="Q3">
-        <v>2.792295902629</v>
+        <v>5.174157782163</v>
       </c>
       <c r="R3">
-        <v>25.130663123661</v>
+        <v>46.567420039467</v>
       </c>
       <c r="S3">
-        <v>0.1306527300652551</v>
+        <v>0.1363498183474769</v>
       </c>
       <c r="T3">
-        <v>0.1306527300652551</v>
+        <v>0.1363498183474769</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7497096666666666</v>
+        <v>1.389221</v>
       </c>
       <c r="H4">
-        <v>2.249129</v>
+        <v>4.167663</v>
       </c>
       <c r="I4">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="J4">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8207906666666666</v>
+        <v>2.284352333333333</v>
       </c>
       <c r="N4">
-        <v>2.462372</v>
+        <v>6.853057</v>
       </c>
       <c r="O4">
-        <v>0.1482488566935505</v>
+        <v>0.2873531572796583</v>
       </c>
       <c r="P4">
-        <v>0.1482488566935505</v>
+        <v>0.2873531572796583</v>
       </c>
       <c r="Q4">
-        <v>0.6153546971097776</v>
+        <v>3.173470232865666</v>
       </c>
       <c r="R4">
-        <v>5.538192273987999</v>
+        <v>28.561232095791</v>
       </c>
       <c r="S4">
-        <v>0.02879271178250648</v>
+        <v>0.08362754055819929</v>
       </c>
       <c r="T4">
-        <v>0.02879271178250648</v>
+        <v>0.08362754055819929</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7497096666666666</v>
+        <v>1.389221</v>
       </c>
       <c r="H5">
-        <v>2.249129</v>
+        <v>4.167663</v>
       </c>
       <c r="I5">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="J5">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.31493</v>
+        <v>0.2937863333333333</v>
       </c>
       <c r="N5">
-        <v>0.9447899999999999</v>
+        <v>0.881359</v>
       </c>
       <c r="O5">
-        <v>0.05688175357561716</v>
+        <v>0.03695595868337916</v>
       </c>
       <c r="P5">
-        <v>0.05688175357561715</v>
+        <v>0.03695595868337916</v>
       </c>
       <c r="Q5">
-        <v>0.2361060653233333</v>
+        <v>0.4081341437796667</v>
       </c>
       <c r="R5">
-        <v>2.12495458791</v>
+        <v>3.673207294017</v>
       </c>
       <c r="S5">
-        <v>0.01104750466826065</v>
+        <v>0.01075518349239383</v>
       </c>
       <c r="T5">
-        <v>0.01104750466826064</v>
+        <v>0.01075518349239383</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>6.606466000000001</v>
       </c>
       <c r="I6">
-        <v>0.5704873989984275</v>
+        <v>0.461328155686921</v>
       </c>
       <c r="J6">
-        <v>0.5704873989984274</v>
+        <v>0.4613281556869209</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6763496666666667</v>
+        <v>1.646992</v>
       </c>
       <c r="N6">
-        <v>2.029049</v>
+        <v>4.940976</v>
       </c>
       <c r="O6">
-        <v>0.1221603374409683</v>
+        <v>0.2071783517404009</v>
       </c>
       <c r="P6">
-        <v>0.1221603374409683</v>
+        <v>0.2071783517404009</v>
       </c>
       <c r="Q6">
-        <v>1.489427025648223</v>
+        <v>3.626932216757334</v>
       </c>
       <c r="R6">
-        <v>13.404843230834</v>
+        <v>32.642389950816</v>
       </c>
       <c r="S6">
-        <v>0.06969093316746822</v>
+        <v>0.09557720690665536</v>
       </c>
       <c r="T6">
-        <v>0.0696909331674682</v>
+        <v>0.09557720690665535</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>6.606466000000001</v>
       </c>
       <c r="I7">
-        <v>0.5704873989984275</v>
+        <v>0.461328155686921</v>
       </c>
       <c r="J7">
-        <v>0.5704873989984274</v>
+        <v>0.4613281556869209</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>11.173509</v>
       </c>
       <c r="O7">
-        <v>0.672709052289864</v>
+        <v>0.4685125322965616</v>
       </c>
       <c r="P7">
-        <v>0.672709052289864</v>
+        <v>0.4685125322965616</v>
       </c>
       <c r="Q7">
         <v>8.201934145466002</v>
@@ -883,10 +883,10 @@
         <v>73.81740730919402</v>
       </c>
       <c r="S7">
-        <v>0.3837720375235417</v>
+        <v>0.2161380224405818</v>
       </c>
       <c r="T7">
-        <v>0.3837720375235416</v>
+        <v>0.2161380224405817</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>6.606466000000001</v>
       </c>
       <c r="I8">
-        <v>0.5704873989984275</v>
+        <v>0.461328155686921</v>
       </c>
       <c r="J8">
-        <v>0.5704873989984274</v>
+        <v>0.4613281556869209</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.8207906666666666</v>
+        <v>2.284352333333333</v>
       </c>
       <c r="N8">
-        <v>2.462372</v>
+        <v>6.853057</v>
       </c>
       <c r="O8">
-        <v>0.1482488566935505</v>
+        <v>0.2873531572796583</v>
       </c>
       <c r="P8">
-        <v>0.1482488566935505</v>
+        <v>0.2873531572796583</v>
       </c>
       <c r="Q8">
-        <v>1.807508544150222</v>
+        <v>5.030498674062445</v>
       </c>
       <c r="R8">
-        <v>16.267576897352</v>
+        <v>45.27448806656201</v>
       </c>
       <c r="S8">
-        <v>0.08457410465959422</v>
+        <v>0.1325641020786385</v>
       </c>
       <c r="T8">
-        <v>0.08457410465959421</v>
+        <v>0.1325641020786385</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>6.606466000000001</v>
       </c>
       <c r="I9">
-        <v>0.5704873989984275</v>
+        <v>0.461328155686921</v>
       </c>
       <c r="J9">
-        <v>0.5704873989984274</v>
+        <v>0.4613281556869209</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.31493</v>
+        <v>0.2937863333333333</v>
       </c>
       <c r="N9">
-        <v>0.9447899999999999</v>
+        <v>0.881359</v>
       </c>
       <c r="O9">
-        <v>0.05688175357561716</v>
+        <v>0.03695595868337916</v>
       </c>
       <c r="P9">
-        <v>0.05688175357561715</v>
+        <v>0.03695595868337916</v>
       </c>
       <c r="Q9">
-        <v>0.6935247791266668</v>
+        <v>0.6469631408104445</v>
       </c>
       <c r="R9">
-        <v>6.24172301214</v>
+        <v>5.822668267294001</v>
       </c>
       <c r="S9">
-        <v>0.03245032364782333</v>
+        <v>0.01704882426104536</v>
       </c>
       <c r="T9">
-        <v>0.03245032364782333</v>
+        <v>0.01704882426104536</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.07599399999999999</v>
+        <v>0.1506176666666667</v>
       </c>
       <c r="H10">
-        <v>0.227982</v>
+        <v>0.451853</v>
       </c>
       <c r="I10">
-        <v>0.01968690343649077</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="J10">
-        <v>0.01968690343649077</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6763496666666667</v>
+        <v>1.646992</v>
       </c>
       <c r="N10">
-        <v>2.029049</v>
+        <v>4.940976</v>
       </c>
       <c r="O10">
-        <v>0.1221603374409683</v>
+        <v>0.2071783517404009</v>
       </c>
       <c r="P10">
-        <v>0.1221603374409683</v>
+        <v>0.2071783517404009</v>
       </c>
       <c r="Q10">
-        <v>0.05139851656866667</v>
+        <v>0.2480660920586667</v>
       </c>
       <c r="R10">
-        <v>0.462586649118</v>
+        <v>2.232594828528</v>
       </c>
       <c r="S10">
-        <v>0.002404958766969471</v>
+        <v>0.006537057433186357</v>
       </c>
       <c r="T10">
-        <v>0.002404958766969471</v>
+        <v>0.006537057433186357</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.07599399999999999</v>
+        <v>0.1506176666666667</v>
       </c>
       <c r="H11">
-        <v>0.227982</v>
+        <v>0.451853</v>
       </c>
       <c r="I11">
-        <v>0.01968690343649077</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="J11">
-        <v>0.01968690343649077</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>11.173509</v>
       </c>
       <c r="O11">
-        <v>0.672709052289864</v>
+        <v>0.4685125322965616</v>
       </c>
       <c r="P11">
-        <v>0.672709052289864</v>
+        <v>0.4685125322965616</v>
       </c>
       <c r="Q11">
-        <v>0.283039880982</v>
+        <v>0.560975951353</v>
       </c>
       <c r="R11">
-        <v>2.547358928838</v>
+        <v>5.048783562177</v>
       </c>
       <c r="S11">
-        <v>0.01324355815328377</v>
+        <v>0.01478288298976248</v>
       </c>
       <c r="T11">
-        <v>0.01324355815328377</v>
+        <v>0.01478288298976248</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.07599399999999999</v>
+        <v>0.1506176666666667</v>
       </c>
       <c r="H12">
-        <v>0.227982</v>
+        <v>0.451853</v>
       </c>
       <c r="I12">
-        <v>0.01968690343649077</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="J12">
-        <v>0.01968690343649077</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8207906666666666</v>
+        <v>2.284352333333333</v>
       </c>
       <c r="N12">
-        <v>2.462372</v>
+        <v>6.853057</v>
       </c>
       <c r="O12">
-        <v>0.1482488566935505</v>
+        <v>0.2873531572796583</v>
       </c>
       <c r="P12">
-        <v>0.1482488566935505</v>
+        <v>0.2873531572796583</v>
       </c>
       <c r="Q12">
-        <v>0.06237516592266665</v>
+        <v>0.3440638182912222</v>
       </c>
       <c r="R12">
-        <v>0.561376493304</v>
+        <v>3.096574364621</v>
       </c>
       <c r="S12">
-        <v>0.002918560926296087</v>
+        <v>0.009066797167583853</v>
       </c>
       <c r="T12">
-        <v>0.002918560926296087</v>
+        <v>0.009066797167583853</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.07599399999999999</v>
+        <v>0.1506176666666667</v>
       </c>
       <c r="H13">
-        <v>0.227982</v>
+        <v>0.451853</v>
       </c>
       <c r="I13">
-        <v>0.01968690343649077</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="J13">
-        <v>0.01968690343649077</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.31493</v>
+        <v>0.2937863333333333</v>
       </c>
       <c r="N13">
-        <v>0.9447899999999999</v>
+        <v>0.881359</v>
       </c>
       <c r="O13">
-        <v>0.05688175357561716</v>
+        <v>0.03695595868337916</v>
       </c>
       <c r="P13">
-        <v>0.05688175357561715</v>
+        <v>0.03695595868337916</v>
       </c>
       <c r="Q13">
-        <v>0.02393279042</v>
+        <v>0.04424941202522222</v>
       </c>
       <c r="R13">
-        <v>0.21539511378</v>
+        <v>0.398244708227</v>
       </c>
       <c r="S13">
-        <v>0.001119825589941439</v>
+        <v>0.001166064033149664</v>
       </c>
       <c r="T13">
-        <v>0.001119825589941439</v>
+        <v>0.001166064033149664</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.8322706666666666</v>
+        <v>1.031517666666667</v>
       </c>
       <c r="H14">
-        <v>2.496812</v>
+        <v>3.094553</v>
       </c>
       <c r="I14">
-        <v>0.2156069195948426</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="J14">
-        <v>0.2156069195948426</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6763496666666667</v>
+        <v>1.646992</v>
       </c>
       <c r="N14">
-        <v>2.029049</v>
+        <v>4.940976</v>
       </c>
       <c r="O14">
-        <v>0.1221603374409683</v>
+        <v>0.2071783517404009</v>
       </c>
       <c r="P14">
-        <v>0.1221603374409683</v>
+        <v>0.2071783517404009</v>
       </c>
       <c r="Q14">
-        <v>0.5629059879764444</v>
+        <v>1.698901344858667</v>
       </c>
       <c r="R14">
-        <v>5.066153891788</v>
+        <v>15.290112103728</v>
       </c>
       <c r="S14">
-        <v>0.02633861405231369</v>
+        <v>0.04476958367221007</v>
       </c>
       <c r="T14">
-        <v>0.02633861405231368</v>
+        <v>0.04476958367221007</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.8322706666666666</v>
+        <v>1.031517666666667</v>
       </c>
       <c r="H15">
-        <v>2.496812</v>
+        <v>3.094553</v>
       </c>
       <c r="I15">
-        <v>0.2156069195948426</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="J15">
-        <v>0.2156069195948426</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>11.173509</v>
       </c>
       <c r="O15">
-        <v>0.672709052289864</v>
+        <v>0.4685125322965616</v>
       </c>
       <c r="P15">
-        <v>0.672709052289864</v>
+        <v>0.4685125322965616</v>
       </c>
       <c r="Q15">
-        <v>3.099794594812</v>
+        <v>3.841890644053</v>
       </c>
       <c r="R15">
-        <v>27.898151353308</v>
+        <v>34.577015796477</v>
       </c>
       <c r="S15">
-        <v>0.1450407265477835</v>
+        <v>0.1012418085187405</v>
       </c>
       <c r="T15">
-        <v>0.1450407265477835</v>
+        <v>0.1012418085187405</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.8322706666666666</v>
+        <v>1.031517666666667</v>
       </c>
       <c r="H16">
-        <v>2.496812</v>
+        <v>3.094553</v>
       </c>
       <c r="I16">
-        <v>0.2156069195948426</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="J16">
-        <v>0.2156069195948426</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.8207906666666666</v>
+        <v>2.284352333333333</v>
       </c>
       <c r="N16">
-        <v>2.462372</v>
+        <v>6.853057</v>
       </c>
       <c r="O16">
-        <v>0.1482488566935505</v>
+        <v>0.2873531572796583</v>
       </c>
       <c r="P16">
-        <v>0.1482488566935505</v>
+        <v>0.2873531572796583</v>
       </c>
       <c r="Q16">
-        <v>0.6831199953404443</v>
+        <v>2.356349788724555</v>
       </c>
       <c r="R16">
-        <v>6.148079958063999</v>
+        <v>21.207148098521</v>
       </c>
       <c r="S16">
-        <v>0.03196347932515368</v>
+        <v>0.06209471747523666</v>
       </c>
       <c r="T16">
-        <v>0.03196347932515368</v>
+        <v>0.06209471747523666</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.8322706666666666</v>
+        <v>1.031517666666667</v>
       </c>
       <c r="H17">
-        <v>2.496812</v>
+        <v>3.094553</v>
       </c>
       <c r="I17">
-        <v>0.2156069195948426</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="J17">
-        <v>0.2156069195948426</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.31493</v>
+        <v>0.2937863333333333</v>
       </c>
       <c r="N17">
-        <v>0.9447899999999999</v>
+        <v>0.881359</v>
       </c>
       <c r="O17">
-        <v>0.05688175357561716</v>
+        <v>0.03695595868337916</v>
       </c>
       <c r="P17">
-        <v>0.05688175357561715</v>
+        <v>0.03695595868337916</v>
       </c>
       <c r="Q17">
-        <v>0.2621070010533333</v>
+        <v>0.3030457930585555</v>
       </c>
       <c r="R17">
-        <v>2.35896300948</v>
+        <v>2.727412137527</v>
       </c>
       <c r="S17">
-        <v>0.01226409966959174</v>
+        <v>0.007985886896790308</v>
       </c>
       <c r="T17">
-        <v>0.01226409966959174</v>
+        <v>0.00798588689679031</v>
       </c>
     </row>
   </sheetData>
